--- a/SE202526/Management/Sprint2/Gantt_Chart_Sprint_2.xlsx
+++ b/SE202526/Management/Sprint2/Gantt_Chart_Sprint_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C129818-C9FF-446C-B13A-038F23AFA9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C93050-1875-464C-8846-6584D58AD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,7 +1013,7 @@
   <dimension ref="B1:BP6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1387,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -1407,16 +1407,16 @@
         <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
